--- a/StructureDefinition-molicavc-questionnaireresponse-profile.xlsx
+++ b/StructureDefinition-molicavc-questionnaireresponse-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T16:41:42-03:00</t>
+    <t>2023-09-08T18:23:11-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>QuestionnaireResponse provides a complete or partial list of answers to a set of questions filled when responding to a questionnaire.</t>
+    <t>QuestionnaireResponse provides a complete or partial list of answers to a set of questions filled when responding
+ to a questionnaire.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-molicavc-questionnaireresponse-profile.xlsx
+++ b/StructureDefinition-molicavc-questionnaireresponse-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2729" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="372">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-08T18:23:11-03:00</t>
+    <t>2023-10-17T16:55:27-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1341,7 +1341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1431,69 +1431,77 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B20" t="s" s="2">
         <v>34</v>
       </c>
     </row>

--- a/StructureDefinition-molicavc-questionnaireresponse-profile.xlsx
+++ b/StructureDefinition-molicavc-questionnaireresponse-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T16:55:27-03:00</t>
+    <t>2023-10-25T16:05:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
